--- a/Excel_Parameterization/bin/TestData/SAUCE_LOGIN.xlsx
+++ b/Excel_Parameterization/bin/TestData/SAUCE_LOGIN.xlsx
@@ -998,7 +998,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
